--- a/app/routes/generate-reports/.server/workbooks/supplement_three.xlsx
+++ b/app/routes/generate-reports/.server/workbooks/supplement_three.xlsx
@@ -902,6 +902,9 @@
     <xf numFmtId="3" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -921,6 +924,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -929,33 +956,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="29">
@@ -1360,61 +1360,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
+      <c r="A1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
     </row>
     <row r="2" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="80" t="s">
+      <c r="E2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="80" t="s">
+      <c r="F2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="80" t="s">
+      <c r="G2" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="80" t="s">
+      <c r="H2" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80" t="s">
+      <c r="I2" s="81"/>
+      <c r="J2" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="80"/>
+      <c r="K2" s="81"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="78"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
       <c r="H3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1428,11 +1428,11 @@
         <v>10</v>
       </c>
       <c r="L3" s="6"/>
-      <c r="M3" s="75" t="s">
+      <c r="M3" s="76" t="s">
         <v>11</v>
       </c>
       <c r="N3" s="7"/>
-      <c r="O3" s="75" t="s">
+      <c r="O3" s="76" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1473,9 +1473,9 @@
       <c r="L4" s="9">
         <v>10</v>
       </c>
-      <c r="M4" s="75"/>
+      <c r="M4" s="76"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="75"/>
+      <c r="O4" s="76"/>
     </row>
     <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
@@ -2867,10 +2867,10 @@
       <c r="Q29" s="16"/>
     </row>
     <row r="30" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="76" t="s">
+      <c r="A30" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="76"/>
+      <c r="B30" s="77"/>
       <c r="C30" s="18">
         <f>SUM(C5:C29)</f>
         <v>67587</v>
@@ -3045,18 +3045,18 @@
     </row>
     <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
+      <c r="A5" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="24"/>
       <c r="L5" s="25"/>
       <c r="M5" s="1"/>
@@ -3064,44 +3064,44 @@
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="80" t="s">
+      <c r="D6" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="80" t="s">
+      <c r="E6" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="80" t="s">
+      <c r="F6" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="80" t="s">
+      <c r="G6" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80" t="s">
+      <c r="H6" s="81"/>
+      <c r="I6" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="80"/>
+      <c r="J6" s="81"/>
       <c r="K6" s="26"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="78"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="5" t="s">
         <v>9</v>
       </c>
@@ -3115,11 +3115,11 @@
         <v>10</v>
       </c>
       <c r="K7" s="27"/>
-      <c r="L7" s="81" t="s">
+      <c r="L7" s="82" t="s">
         <v>11</v>
       </c>
       <c r="M7" s="7"/>
-      <c r="N7" s="75" t="s">
+      <c r="N7" s="76" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3155,9 +3155,9 @@
         <v>10</v>
       </c>
       <c r="K8" s="28"/>
-      <c r="L8" s="81"/>
+      <c r="L8" s="82"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="75"/>
+      <c r="N8" s="76"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
@@ -4567,10 +4567,10 @@
       </c>
     </row>
     <row r="34" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="76" t="s">
+      <c r="A34" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="76"/>
+      <c r="B34" s="77"/>
       <c r="C34" s="18">
         <f>SUM(C9:C33)</f>
         <v>67841</v>
@@ -4648,7 +4648,7 @@
   <dimension ref="A1:AJ39"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="Y23" sqref="Y23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4683,106 +4683,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="89"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
       <c r="AB1" s="31" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="90"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
       <c r="Y2" s="32"/>
       <c r="Z2" s="32"/>
       <c r="AA2" s="32"/>
       <c r="AB2" s="32"/>
     </row>
     <row r="3" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91"/>
-      <c r="S3" s="91"/>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="85" t="s">
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="85"/>
+      <c r="V3" s="85"/>
+      <c r="W3" s="85"/>
+      <c r="X3" s="85"/>
+      <c r="Y3" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
+      <c r="Z3" s="87"/>
+      <c r="AA3" s="87"/>
       <c r="AB3" s="34"/>
     </row>
     <row r="4" spans="1:36" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78" t="s">
+      <c r="A4" s="79"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
       <c r="Q4" s="35"/>
       <c r="R4" s="35"/>
       <c r="S4" s="35"/>
@@ -4797,78 +4797,78 @@
       <c r="AB4" s="37"/>
     </row>
     <row r="5" spans="1:36" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="85" t="s">
+      <c r="A5" s="79"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85" t="s">
+      <c r="E5" s="87"/>
+      <c r="F5" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85" t="s">
+      <c r="G5" s="87"/>
+      <c r="H5" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="85"/>
-      <c r="J5" s="80" t="s">
+      <c r="I5" s="87"/>
+      <c r="J5" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="87" t="s">
+      <c r="K5" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87" t="s">
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="87"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="88" t="s">
+      <c r="O5" s="89"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="R5" s="88" t="s">
+      <c r="R5" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="S5" s="88" t="s">
+      <c r="S5" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="T5" s="88" t="s">
+      <c r="T5" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="U5" s="88" t="s">
+      <c r="U5" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="V5" s="88" t="s">
+      <c r="V5" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="W5" s="88"/>
-      <c r="X5" s="92" t="s">
+      <c r="W5" s="90"/>
+      <c r="X5" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="Y5" s="83" t="s">
+      <c r="Y5" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="Z5" s="80" t="s">
+      <c r="Z5" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="AA5" s="80" t="s">
+      <c r="AA5" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="AB5" s="84" t="s">
+      <c r="AB5" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="AC5" s="75"/>
-      <c r="AD5" s="80" t="s">
+      <c r="AC5" s="76"/>
+      <c r="AD5" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="AE5" s="80"/>
+      <c r="AE5" s="81"/>
     </row>
     <row r="6" spans="1:36" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
       <c r="D6" s="3" t="s">
         <v>69</v>
       </c>
@@ -4887,7 +4887,7 @@
       <c r="I6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J6" s="80"/>
+      <c r="J6" s="81"/>
       <c r="K6" s="33" t="s">
         <v>52</v>
       </c>
@@ -4906,23 +4906,23 @@
       <c r="P6" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="88"/>
-      <c r="S6" s="88"/>
-      <c r="T6" s="88"/>
-      <c r="U6" s="88"/>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="90"/>
+      <c r="S6" s="90"/>
+      <c r="T6" s="90"/>
+      <c r="U6" s="90"/>
       <c r="V6" s="38" t="s">
         <v>9</v>
       </c>
       <c r="W6" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="X6" s="92"/>
-      <c r="Y6" s="83"/>
-      <c r="Z6" s="80"/>
-      <c r="AA6" s="80"/>
-      <c r="AB6" s="80"/>
-      <c r="AC6" s="75"/>
+      <c r="X6" s="86"/>
+      <c r="Y6" s="92"/>
+      <c r="Z6" s="81"/>
+      <c r="AA6" s="81"/>
+      <c r="AB6" s="81"/>
+      <c r="AC6" s="76"/>
       <c r="AD6" s="6" t="s">
         <v>9</v>
       </c>
@@ -6612,12 +6612,12 @@
         <f>D29+F29+H29</f>
         <v>0</v>
       </c>
-      <c r="D29" s="93"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="93"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
       <c r="J29" s="46">
         <f>E29+G29+I29</f>
         <v>0</v>
@@ -6660,14 +6660,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Y29" s="50">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Z29" s="46">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA29" s="49">
         <f t="shared" si="8"/>
-        <v>0.98550724637681164</v>
+        <v>0.98557692307692313</v>
       </c>
       <c r="AB29" s="60" t="s">
         <v>75</v>
@@ -6683,7 +6683,7 @@
       </c>
       <c r="AG29" s="61">
         <f>Z29/204</f>
-        <v>1</v>
+        <v>1.0049019607843137</v>
       </c>
       <c r="AJ29" s="15"/>
     </row>
@@ -6913,10 +6913,10 @@
       <c r="AJ32" s="15"/>
     </row>
     <row r="33" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="76" t="s">
+      <c r="A33" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="76"/>
+      <c r="B33" s="77"/>
       <c r="C33" s="18">
         <f t="shared" ref="C33:L33" si="11">SUM(C8:C32)</f>
         <v>0</v>
@@ -7001,11 +7001,11 @@
       </c>
       <c r="Y33" s="65">
         <f t="shared" si="12"/>
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Z33" s="18">
         <f t="shared" si="12"/>
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA33" s="18" t="e">
         <f t="shared" si="12"/>
@@ -7092,23 +7092,25 @@
       <c r="C37" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="D37" s="82" t="s">
+      <c r="D37" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="E37" s="82"/>
-      <c r="F37" s="82"/>
+      <c r="E37" s="91"/>
+      <c r="F37" s="91"/>
     </row>
     <row r="39" spans="1:31" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V39" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="A2:X2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:X3"/>
-    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AC5:AC6"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="D4:I4"/>
@@ -7125,14 +7127,12 @@
     <mergeCell ref="T5:T6"/>
     <mergeCell ref="U5:U6"/>
     <mergeCell ref="V5:W5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="A2:X2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:X3"/>
+    <mergeCell ref="X5:X6"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" scale="36" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
